--- a/Wireguard VPN/Wireguard VPN with Linode.xlsx
+++ b/Wireguard VPN/Wireguard VPN with Linode.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wufiyuddin\Downloads\Projects Made by Wafi\Create Wireguard VPN project @Linode Server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github Projects\Linode Server\Linode-Project\Wireguard VPN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0058D62C-2AD1-4225-93EB-DC391F1549BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C66E49-1395-4F42-9C6A-6C2004CFB5DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>Budget</t>
   </si>
@@ -54,12 +54,6 @@
   </si>
   <si>
     <t>&gt; Linode Cloud Server</t>
-  </si>
-  <si>
-    <t>US$5.00</t>
-  </si>
-  <si>
-    <t>Overall: $7.00</t>
   </si>
   <si>
     <t>What you will need</t>
@@ -173,6 +167,15 @@
     <t>Using a Wireguard Software &amp; Linode Cloud Server allows me to build a variety of servers for my own uses and family's needs. Creating a VPN server is difficult since many factors must be taken into account, including security, configurations, maintaining updates, uptime/downtime, and so on. As a result, following an extensive research and testing, I developed my own Wireguard VPN server using my Linode.
 Here are the list of server I made as my aim of this project:
 1.  Creating a secure Wireguard VPN Server with Linode.</t>
+  </si>
+  <si>
+    <t>US$5.0/Month</t>
+  </si>
+  <si>
+    <t>$7.00/Month</t>
+  </si>
+  <si>
+    <t>Overall: $7.00/Month</t>
   </si>
 </sst>
 </file>
@@ -462,6 +465,42 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -479,42 +518,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1837,15 +1840,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:I22"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.77734375" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="113.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1874,78 +1878,78 @@
       <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="23" t="s">
-        <v>39</v>
+      <c r="H4" s="17" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="24">
         <v>0</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="24">
         <v>0</v>
       </c>
-      <c r="H5" s="23"/>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="25"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="H6" s="23"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="25"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="H7" s="23"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="25"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="H8" s="23"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="26"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="H9" s="23"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="30">
-        <v>7</v>
-      </c>
-      <c r="H10" s="23"/>
+      <c r="D10" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="26"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="32"/>
-      <c r="H11" s="23"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="26"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" spans="2:8" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>7</v>
@@ -1956,50 +1960,50 @@
       <c r="E12" s="5">
         <v>0</v>
       </c>
-      <c r="H12" s="23"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="2:8" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="23"/>
+        <v>45</v>
+      </c>
+      <c r="H13" s="17"/>
     </row>
     <row r="16" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="2:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
-      <c r="H17" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="17"/>
+      <c r="H17" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="29"/>
     </row>
     <row r="18" spans="2:9" ht="108.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="20"/>
+      <c r="B18" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="32"/>
       <c r="H18" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="2:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -2010,19 +2014,24 @@
       <c r="I21" s="16"/>
     </row>
     <row r="22" spans="2:9" ht="136.80000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
+      <c r="B22" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B22:I22"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="H4:H13"/>
     <mergeCell ref="B5:B9"/>
@@ -2033,11 +2042,6 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B22:I22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I18" r:id="rId1" xr:uid="{C6B6F202-8798-4C2F-9E9E-20B6826F0C75}"/>
@@ -2062,12 +2066,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -2079,47 +2083,47 @@
     </row>
     <row r="4" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="189" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="144.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="119.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" s="35"/>
       <c r="C12" s="35"/>
@@ -2131,17 +2135,17 @@
     </row>
     <row r="14" spans="1:3" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="153" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
@@ -2149,7 +2153,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
@@ -2182,12 +2186,12 @@
   <sheetData>
     <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
@@ -2199,45 +2203,45 @@
     </row>
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="148.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
